--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1065,7 +1065,7 @@
           <t>tags</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>*items</t>
         </is>
@@ -1236,623 +1236,962 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="0" t="inlineStr">
+    <row r="10">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>ItemType</t>
         </is>
       </c>
-      <c r="C9" s="0" t="b">
+      <c r="C10" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="b">
+      <c r="D10" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>道具类型</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>道具大类</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Costume</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>消耗品</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>装备</t>
+          <t>装扮</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>Item</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>货币</t>
+          <t>道具</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>Doll</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>玩偶</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>HomeItem</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>家园道具</t>
+          <t>装备</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>ItemSubType</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>道具子类</t>
+        </is>
+      </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>GiftPack</t>
+          <t>CostumeSuit</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>礼包</t>
+          <t>套装</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>CostumeFace</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>材料</t>
+          <t>脸</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>QuestItem</t>
+          <t>CostumeGlasses</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>任务道具</t>
+          <t>眼镜</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>Rarity</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>稀有度</t>
-        </is>
-      </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>CostumeHeaddress</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>头饰</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>CostumeWing</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>优秀</t>
+          <t>翅膀</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>CostumeClothes</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>稀有</t>
+          <t>衣服</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>CostumePants</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>史诗</t>
+          <t>裤子</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>CostumeShoes</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>传说</t>
+          <t>鞋</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>ItemConsumable</t>
         </is>
       </c>
       <c r="J22" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>神话</t>
+          <t>消耗品</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>BindType</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>绑定类型</t>
-        </is>
-      </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>ItemMaterial</t>
         </is>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>不绑定</t>
+          <t>材料</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>PickupBind</t>
+          <t>ItemCollection</t>
         </is>
       </c>
       <c r="J24" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>拾取绑定</t>
+          <t>收藏</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>EquipBind</t>
+          <t>EquipWeapon</t>
         </is>
       </c>
       <c r="J25" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>装备绑定</t>
+          <t>武器</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>ExpireType</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>过期类型</t>
-        </is>
-      </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>Permanent</t>
+          <t>EquipHelmet</t>
         </is>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>永久</t>
+          <t>头盔</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>EquipGloves</t>
         </is>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>时长</t>
+          <t>手套</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>FixedDate</t>
+          <t>EquipArmor</t>
         </is>
       </c>
       <c r="J28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>上衣</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>EquipPants</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>裤子</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>EquipBoots</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>鞋子</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>BagType</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>背包类型</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>Costume</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>装扮背包</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K28" s="0" t="inlineStr">
-        <is>
-          <t>固定日期</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>RefreshType</t>
-        </is>
-      </c>
-      <c r="C29" t="b">
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>道具背包</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>装备栏</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>BagSortType</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="b">
+      <c r="D37" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>刷新类型</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>永不刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>背包排序类型</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>每日刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>按类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>每周刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>每月刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CurrencyType</t>
-        </is>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>货币类型</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Coin</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>金币</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>钻石</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>GuildCoin</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>公会币</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>AllianceCoin</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>联盟币</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>HonorPoint</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>荣誉点</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>StockType</t>
-        </is>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>库存类型</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Unlimited</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>无限库存</t>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>按品质</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="H39" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>每日限购</t>
+          <t>按ID</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="inlineStr">
         <is>
+          <t>ExpireTime</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>按限时</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Rarity</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>稀有度</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>优秀</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>稀有</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>传说</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>神话</t>
+        </is>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>BindType</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>绑定类型</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>不绑定</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>PickupBind</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>拾取绑定</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>EquipBind</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>装备绑定</t>
+        </is>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>ExpireType</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>过期类型</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>永久</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="0" t="inlineStr">
+        <is>
+          <t>时长</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>FixedDate</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>固定日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>RefreshType</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>刷新类型</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="inlineStr">
+        <is>
+          <t>永不刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="0" t="inlineStr">
+        <is>
+          <t>每日刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" s="0" t="inlineStr">
+        <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="J59" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>每周刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>每月刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>CurrencyType</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>货币类型</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>金币</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" s="0" t="inlineStr">
+        <is>
+          <t>钻石</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>GuildCoin</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>公会币</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>AllianceCoin</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>联盟币</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>HonorPoint</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>荣誉点</t>
+        </is>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68">
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>StockType</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>库存类型</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>Unlimited</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>无限库存</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="0" t="inlineStr">
+        <is>
+          <t>每日限购</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
         <is>
           <t>每周限购</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="H41" t="inlineStr">
+    <row r="71">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="J71" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K71" s="0" t="inlineStr">
         <is>
           <t>每月限购</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="H42" t="inlineStr">
+    <row r="72">
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>Lifetime</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="J72" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K72" s="0" t="inlineStr">
         <is>
           <t>终身限购</t>
         </is>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1297,903 +1297,1002 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="0" t="inlineStr">
+    <row r="13">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>玩偶</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>ItemSubType</t>
         </is>
       </c>
-      <c r="C14" s="0" t="b">
+      <c r="C15" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="b">
+      <c r="D15" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>道具子类</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>CostumeSuit</t>
         </is>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="0" t="inlineStr">
+      <c r="K15" s="0" t="inlineStr">
         <is>
           <t>套装</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>CostumeFace</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>脸</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>CostumeGlasses</t>
+          <t>CostumeFace</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>眼镜</t>
+          <t>脸</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>CostumeHeaddress</t>
+          <t>CostumeGlasses</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>头饰</t>
+          <t>眼镜</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>CostumeWing</t>
+          <t>CostumeHeaddress</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>翅膀</t>
+          <t>头饰</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>CostumeClothes</t>
+          <t>CostumeWing</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>衣服</t>
+          <t>翅膀</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>CostumePants</t>
+          <t>CostumeClothes</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>衣服</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>CostumeShoes</t>
+          <t>CostumePants</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>鞋</t>
+          <t>裤子</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>ItemConsumable</t>
+          <t>CostumeShoes</t>
         </is>
       </c>
       <c r="J22" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>消耗品</t>
+          <t>鞋</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>ItemMaterial</t>
+          <t>ItemConsumable</t>
         </is>
       </c>
       <c r="J23" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>材料</t>
+          <t>消耗品</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>ItemCollection</t>
+          <t>ItemMaterial</t>
         </is>
       </c>
       <c r="J24" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>收藏</t>
+          <t>材料</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>EquipWeapon</t>
+          <t>ItemCollection</t>
         </is>
       </c>
       <c r="J25" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>武器</t>
+          <t>收藏</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>EquipHelmet</t>
+          <t>EquipWeapon</t>
         </is>
       </c>
       <c r="J26" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>头盔</t>
+          <t>武器</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>EquipGloves</t>
+          <t>EquipHelmet</t>
         </is>
       </c>
       <c r="J27" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>手套</t>
+          <t>头盔</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>EquipArmor</t>
+          <t>EquipGloves</t>
         </is>
       </c>
       <c r="J28" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>上衣</t>
+          <t>手套</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>EquipPants</t>
+          <t>EquipArmor</t>
         </is>
       </c>
       <c r="J29" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>裤子</t>
+          <t>上衣</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="H30" s="0" t="inlineStr">
         <is>
+          <t>EquipPants</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>裤子</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="H31" s="0" t="inlineStr">
+        <is>
           <t>EquipBoots</t>
         </is>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="K30" s="0" t="inlineStr">
+      <c r="K31" s="0" t="inlineStr">
         <is>
           <t>鞋子</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="0" t="inlineStr">
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>BagType</t>
         </is>
       </c>
-      <c r="C33" s="0" t="b">
+      <c r="C34" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="b">
+      <c r="D34" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F33" s="0" t="inlineStr">
+      <c r="F34" s="0" t="inlineStr">
         <is>
           <t>背包类型</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>Costume</t>
         </is>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="0" t="inlineStr">
+      <c r="K34" s="0" t="inlineStr">
         <is>
           <t>装扮背包</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t>道具背包</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="H35" s="0" t="inlineStr">
         <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>道具背包</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="H36" s="0" t="inlineStr">
+        <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K35" s="0" t="inlineStr">
+      <c r="K36" s="0" t="inlineStr">
         <is>
           <t>装备栏</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="0" t="inlineStr">
+    <row r="37"/>
+    <row r="38">
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>BagSortType</t>
         </is>
       </c>
-      <c r="C37" s="0" t="b">
+      <c r="C38" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="b">
+      <c r="D38" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="0" t="inlineStr">
+      <c r="F38" s="0" t="inlineStr">
         <is>
           <t>背包排序类型</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="0" t="inlineStr">
+      <c r="K38" s="0" t="inlineStr">
         <is>
           <t>按类型</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="H38" s="0" t="inlineStr">
+    <row r="39">
+      <c r="H39" s="0" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="0" t="inlineStr">
+      <c r="K39" s="0" t="inlineStr">
         <is>
           <t>按品质</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="H39" t="inlineStr">
+    <row r="40">
+      <c r="H40" s="0" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K40" s="0" t="inlineStr">
         <is>
           <t>按ID</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="H40" t="inlineStr">
+    <row r="41">
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>ExpireTime</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K41" s="0" t="inlineStr">
         <is>
           <t>按限时</t>
         </is>
       </c>
     </row>
-    <row r="41"/>
-    <row r="42">
-      <c r="B42" s="0" t="inlineStr">
+    <row r="42"/>
+    <row r="43">
+      <c r="B43" s="0" t="inlineStr">
         <is>
           <t>Rarity</t>
         </is>
       </c>
-      <c r="C42" s="0" t="b">
+      <c r="C43" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="b">
+      <c r="D43" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="0" t="inlineStr">
+      <c r="F43" s="0" t="inlineStr">
         <is>
           <t>稀有度</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>Common</t>
         </is>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="0" t="inlineStr">
+      <c r="K43" s="0" t="inlineStr">
         <is>
           <t>普通</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>Uncommon</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>优秀</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="J44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>稀有</t>
+          <t>优秀</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="J45" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>史诗</t>
+          <t>稀有</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="J46" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" s="0" t="inlineStr">
         <is>
-          <t>传说</t>
+          <t>史诗</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="H47" s="0" t="inlineStr">
         <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>传说</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="H48" s="0" t="inlineStr">
+        <is>
           <t>Mythic</t>
         </is>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J48" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K47" s="0" t="inlineStr">
+      <c r="K48" s="0" t="inlineStr">
         <is>
           <t>神话</t>
         </is>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="B49" s="0" t="inlineStr">
+    <row r="49"/>
+    <row r="50">
+      <c r="B50" s="0" t="inlineStr">
         <is>
           <t>BindType</t>
         </is>
       </c>
-      <c r="C49" s="0" t="b">
+      <c r="C50" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="b">
+      <c r="D50" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="0" t="inlineStr">
+      <c r="F50" s="0" t="inlineStr">
         <is>
           <t>绑定类型</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="0" t="inlineStr">
+      <c r="K50" s="0" t="inlineStr">
         <is>
           <t>不绑定</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>PickupBind</t>
-        </is>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="0" t="inlineStr">
-        <is>
-          <t>拾取绑定</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="H51" s="0" t="inlineStr">
         <is>
+          <t>PickupBind</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>拾取绑定</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" s="0" t="inlineStr">
+        <is>
           <t>EquipBind</t>
         </is>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K51" s="0" t="inlineStr">
+      <c r="K52" s="0" t="inlineStr">
         <is>
           <t>装备绑定</t>
         </is>
       </c>
     </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="B53" s="0" t="inlineStr">
+    <row r="53"/>
+    <row r="54">
+      <c r="B54" s="0" t="inlineStr">
         <is>
           <t>ExpireType</t>
         </is>
       </c>
-      <c r="C53" s="0" t="b">
+      <c r="C54" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="0" t="b">
+      <c r="D54" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="0" t="inlineStr">
+      <c r="F54" s="0" t="inlineStr">
         <is>
           <t>过期类型</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>Permanent</t>
         </is>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="0" t="inlineStr">
+      <c r="K54" s="0" t="inlineStr">
         <is>
           <t>永久</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="H54" s="0" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="0" t="inlineStr">
-        <is>
-          <t>时长</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="H55" s="0" t="inlineStr">
         <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>时长</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" s="0" t="inlineStr">
+        <is>
           <t>FixedDate</t>
         </is>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J56" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K55" s="0" t="inlineStr">
+      <c r="K56" s="0" t="inlineStr">
         <is>
           <t>固定日期</t>
         </is>
       </c>
     </row>
-    <row r="56"/>
-    <row r="57">
-      <c r="B57" s="0" t="inlineStr">
+    <row r="57"/>
+    <row r="58">
+      <c r="B58" s="0" t="inlineStr">
         <is>
           <t>RefreshType</t>
         </is>
       </c>
-      <c r="C57" s="0" t="b">
+      <c r="C58" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D57" s="0" t="b">
+      <c r="D58" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="0" t="inlineStr">
+      <c r="F58" s="0" t="inlineStr">
         <is>
           <t>刷新类型</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>Never</t>
         </is>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="0" t="inlineStr">
+      <c r="K58" s="0" t="inlineStr">
         <is>
           <t>永不刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>每日刷新</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="J59" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>每周刷新</t>
+          <t>每日刷新</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="H60" s="0" t="inlineStr">
         <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>每周刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" s="0" t="inlineStr">
+        <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J61" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K60" s="0" t="inlineStr">
+      <c r="K61" s="0" t="inlineStr">
         <is>
           <t>每月刷新</t>
         </is>
       </c>
     </row>
-    <row r="61"/>
-    <row r="62">
-      <c r="B62" s="0" t="inlineStr">
+    <row r="62"/>
+    <row r="63">
+      <c r="B63" s="0" t="inlineStr">
         <is>
           <t>CurrencyType</t>
         </is>
       </c>
-      <c r="C62" s="0" t="b">
+      <c r="C63" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D62" s="0" t="b">
+      <c r="D63" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="0" t="inlineStr">
+      <c r="F63" s="0" t="inlineStr">
         <is>
           <t>货币类型</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>Coin</t>
         </is>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K62" s="0" t="inlineStr">
+      <c r="K63" s="0" t="inlineStr">
         <is>
           <t>金币</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="H63" s="0" t="inlineStr">
-        <is>
-          <t>Diamond</t>
-        </is>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" s="0" t="inlineStr">
-        <is>
-          <t>钻石</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="H64" s="0" t="inlineStr">
         <is>
-          <t>GuildCoin</t>
+          <t>Diamond</t>
         </is>
       </c>
       <c r="J64" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>公会币</t>
+          <t>钻石</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="H65" s="0" t="inlineStr">
         <is>
-          <t>AllianceCoin</t>
+          <t>GuildCoin</t>
         </is>
       </c>
       <c r="J65" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
-          <t>联盟币</t>
+          <t>公会币</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="H66" s="0" t="inlineStr">
         <is>
+          <t>AllianceCoin</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>联盟币</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" s="0" t="inlineStr">
+        <is>
           <t>HonorPoint</t>
         </is>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K66" s="0" t="inlineStr">
+      <c r="K67" s="0" t="inlineStr">
         <is>
           <t>荣誉点</t>
         </is>
       </c>
     </row>
-    <row r="67"/>
-    <row r="68">
-      <c r="B68" s="0" t="inlineStr">
+    <row r="68"/>
+    <row r="69">
+      <c r="B69" s="0" t="inlineStr">
         <is>
           <t>StockType</t>
         </is>
       </c>
-      <c r="C68" s="0" t="b">
+      <c r="C69" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D68" s="0" t="b">
+      <c r="D69" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="F68" s="0" t="inlineStr">
+      <c r="F69" s="0" t="inlineStr">
         <is>
           <t>库存类型</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K68" s="0" t="inlineStr">
+      <c r="K69" s="0" t="inlineStr">
         <is>
           <t>无限库存</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="0" t="inlineStr">
-        <is>
-          <t>每日限购</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="J70" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="0" t="inlineStr">
         <is>
-          <t>每周限购</t>
+          <t>每日限购</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="J71" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="0" t="inlineStr">
         <is>
-          <t>每月限购</t>
+          <t>每周限购</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="H72" s="0" t="inlineStr">
         <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>每月限购</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="H73" s="0" t="inlineStr">
+        <is>
           <t>Lifetime</t>
         </is>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J73" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K72" s="0" t="inlineStr">
+      <c r="K73" s="0" t="inlineStr">
         <is>
           <t>终身限购</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DollType</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>玩偶类型</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Animal</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>动物</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>人物</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>植物</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>物品</t>
         </is>
       </c>
     </row>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15615" windowHeight="7560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1298,21 +1298,20 @@
       </c>
     </row>
     <row r="13">
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>Doll</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="0" t="inlineStr">
         <is>
           <t>玩偶</t>
         </is>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1584,8 +1583,6 @@
         </is>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33"/>
     <row r="34">
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -1647,7 +1644,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="0" t="inlineStr">
         <is>
@@ -1724,7 +1720,6 @@
         </is>
       </c>
     </row>
-    <row r="42"/>
     <row r="43">
       <c r="B43" s="0" t="inlineStr">
         <is>
@@ -1831,7 +1826,6 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" s="0" t="inlineStr">
         <is>
@@ -1893,7 +1887,6 @@
         </is>
       </c>
     </row>
-    <row r="53"/>
     <row r="54">
       <c r="B54" s="0" t="inlineStr">
         <is>
@@ -1955,7 +1948,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
     <row r="58">
       <c r="B58" s="0" t="inlineStr">
         <is>
@@ -2032,7 +2024,6 @@
         </is>
       </c>
     </row>
-    <row r="62"/>
     <row r="63">
       <c r="B63" s="0" t="inlineStr">
         <is>
@@ -2124,7 +2115,6 @@
         </is>
       </c>
     </row>
-    <row r="68"/>
     <row r="69">
       <c r="B69" s="0" t="inlineStr">
         <is>
@@ -2217,82 +2207,258 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="0" t="inlineStr">
         <is>
           <t>DollType</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="0" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="0" t="inlineStr">
         <is>
           <t>玩偶类型</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>Animal</t>
         </is>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="0" t="inlineStr">
         <is>
           <t>动物</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>Human</t>
         </is>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K76" s="0" t="inlineStr">
         <is>
           <t>人物</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>Plant</t>
         </is>
       </c>
-      <c r="J77" t="n">
+      <c r="J77" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" s="0" t="inlineStr">
         <is>
           <t>植物</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="J78" t="n">
+      <c r="J78" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K78" s="0" t="inlineStr">
         <is>
           <t>物品</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>DropType</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>掉落类型</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>WEIGHT</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>PROBABILITY</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GachaType</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>抽卡类型</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>常驻池</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>UP池</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>限定池</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PityRewardType</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>保底奖励类型</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>无额外奖励</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>具体道具</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Drop</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>掉落包</t>
         </is>
       </c>
     </row>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -2333,135 +2333,339 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="0" t="inlineStr">
         <is>
           <t>GachaType</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="0" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="0" t="inlineStr">
         <is>
           <t>抽卡类型</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" s="0" t="inlineStr">
         <is>
           <t>Permanent</t>
         </is>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="J84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="0" t="inlineStr">
         <is>
           <t>常驻池</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="H85" t="inlineStr">
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="J85" t="n">
+      <c r="J85" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K85" s="0" t="inlineStr">
         <is>
           <t>UP池</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="H86" t="inlineStr">
+      <c r="H86" s="0" t="inlineStr">
         <is>
           <t>Limited</t>
         </is>
       </c>
-      <c r="J86" t="n">
+      <c r="J86" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" s="0" t="inlineStr">
         <is>
           <t>限定池</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="0" t="inlineStr">
         <is>
           <t>PityRewardType</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="0" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="0" t="inlineStr">
         <is>
           <t>保底奖励类型</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K88" s="0" t="inlineStr">
         <is>
           <t>无额外奖励</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="H89" t="inlineStr">
+      <c r="H89" s="0" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="J89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="0" t="inlineStr">
         <is>
           <t>具体道具</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="H90" t="inlineStr">
+      <c r="H90" s="0" t="inlineStr">
         <is>
           <t>Drop</t>
         </is>
       </c>
-      <c r="J90" t="n">
+      <c r="J90" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" s="0" t="inlineStr">
         <is>
           <t>掉落包</t>
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="0" t="n"/>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>ItemQuality</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="0" t="n"/>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>道具品质</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="n"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>白色</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" s="0" t="n"/>
+      <c r="F92" s="0" t="n"/>
+      <c r="G92" s="0" t="n"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>绿色</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" s="0" t="n"/>
+      <c r="F93" s="0" t="n"/>
+      <c r="G93" s="0" t="n"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" s="0" t="n"/>
+      <c r="F94" s="0" t="n"/>
+      <c r="G94" s="0" t="n"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>紫色</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" s="0" t="n"/>
+      <c r="F95" s="0" t="n"/>
+      <c r="G95" s="0" t="n"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>橙色</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="n"/>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>DollQuality</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="0" t="n"/>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>玩偶品质</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="n"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>高级</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" s="0" t="n"/>
+      <c r="F97" s="0" t="n"/>
+      <c r="G97" s="0" t="n"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>稀有</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" s="0" t="n"/>
+      <c r="F98" s="0" t="n"/>
+      <c r="G98" s="0" t="n"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" s="0" t="n"/>
+      <c r="F99" s="0" t="n"/>
+      <c r="G99" s="0" t="n"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Hidden</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>隐藏</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" s="0" t="n"/>
+      <c r="F100" s="0" t="n"/>
+      <c r="G100" s="0" t="n"/>
+    </row>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15615" windowHeight="7560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1236,6 +1236,7 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1312,6 +1313,7 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1583,71 +1585,40 @@
         </is>
       </c>
     </row>
+    <row r="32"/>
+    <row r="33"/>
     <row r="34">
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>BagType</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>背包类型</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>Costume</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t>装扮背包</t>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" s="0" t="inlineStr">
-        <is>
-          <t>道具背包</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>DollHuman</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" s="0" t="inlineStr">
-        <is>
-          <t>装备栏</t>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>DollPlant</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>DollObject</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>BagSortType</t>
+          <t>BagType</t>
         </is>
       </c>
       <c r="C38" s="0" t="b">
@@ -1658,12 +1629,12 @@
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>背包排序类型</t>
+          <t>背包类型</t>
         </is>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Costume</t>
         </is>
       </c>
       <c r="J38" s="0" t="n">
@@ -1671,14 +1642,14 @@
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>按类型</t>
+          <t>装扮背包</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Item</t>
         </is>
       </c>
       <c r="J39" s="0" t="n">
@@ -1686,14 +1657,14 @@
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>按品质</t>
+          <t>道具背包</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J40" s="0" t="n">
@@ -1701,196 +1672,199 @@
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>按ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>ExpireTime</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>按限时</t>
+          <t>装备栏</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>BagSortType</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>背包排序类型</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>按类型</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>Rarity</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>稀有度</t>
-        </is>
-      </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="J43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="0" t="inlineStr">
         <is>
-          <t>普通</t>
+          <t>按品质</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="J44" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>优秀</t>
+          <t>按ID</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>ExpireTime</t>
         </is>
       </c>
       <c r="J45" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>稀有</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" s="0" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" s="0" t="inlineStr">
-        <is>
-          <t>史诗</t>
-        </is>
-      </c>
-    </row>
+          <t>按限时</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
     <row r="47">
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Rarity</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>稀有度</t>
+        </is>
+      </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>Legendary</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="J47" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" s="0" t="inlineStr">
         <is>
-          <t>传说</t>
+          <t>普通</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>Mythic</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="J48" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K48" s="0" t="inlineStr">
         <is>
-          <t>神话</t>
+          <t>优秀</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>稀有</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>BindType</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>绑定类型</t>
-        </is>
-      </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K50" s="0" t="inlineStr">
         <is>
-          <t>不绑定</t>
+          <t>史诗</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>PickupBind</t>
+          <t>Legendary</t>
         </is>
       </c>
       <c r="J51" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K51" s="0" t="inlineStr">
         <is>
-          <t>拾取绑定</t>
+          <t>传说</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>EquipBind</t>
+          <t>Mythic</t>
         </is>
       </c>
       <c r="J52" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K52" s="0" t="inlineStr">
         <is>
-          <t>装备绑定</t>
-        </is>
-      </c>
-    </row>
+          <t>神话</t>
+        </is>
+      </c>
+    </row>
+    <row r="53"/>
     <row r="54">
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>ExpireType</t>
+          <t>BindType</t>
         </is>
       </c>
       <c r="C54" s="0" t="b">
@@ -1901,12 +1875,12 @@
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>过期类型</t>
+          <t>绑定类型</t>
         </is>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>Permanent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J54" s="0" t="n">
@@ -1914,14 +1888,14 @@
       </c>
       <c r="K54" s="0" t="inlineStr">
         <is>
-          <t>永久</t>
+          <t>不绑定</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>PickupBind</t>
         </is>
       </c>
       <c r="J55" s="0" t="n">
@@ -1929,14 +1903,14 @@
       </c>
       <c r="K55" s="0" t="inlineStr">
         <is>
-          <t>时长</t>
+          <t>拾取绑定</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>FixedDate</t>
+          <t>EquipBind</t>
         </is>
       </c>
       <c r="J56" s="0" t="n">
@@ -1944,14 +1918,15 @@
       </c>
       <c r="K56" s="0" t="inlineStr">
         <is>
-          <t>固定日期</t>
-        </is>
-      </c>
-    </row>
+          <t>装备绑定</t>
+        </is>
+      </c>
+    </row>
+    <row r="57"/>
     <row r="58">
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>RefreshType</t>
+          <t>ExpireType</t>
         </is>
       </c>
       <c r="C58" s="0" t="b">
@@ -1962,12 +1937,12 @@
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>刷新类型</t>
+          <t>过期类型</t>
         </is>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="J58" s="0" t="n">
@@ -1975,14 +1950,14 @@
       </c>
       <c r="K58" s="0" t="inlineStr">
         <is>
-          <t>永不刷新</t>
+          <t>永久</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="J59" s="0" t="n">
@@ -1990,14 +1965,14 @@
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>每日刷新</t>
+          <t>时长</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>FixedDate</t>
         </is>
       </c>
       <c r="J60" s="0" t="n">
@@ -2005,45 +1980,46 @@
       </c>
       <c r="K60" s="0" t="inlineStr">
         <is>
-          <t>每周刷新</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K61" s="0" t="inlineStr">
-        <is>
-          <t>每月刷新</t>
+          <t>固定日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>RefreshType</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>刷新类型</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>永不刷新</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>CurrencyType</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>货币类型</t>
-        </is>
-      </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>Coin</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="J63" s="0" t="n">
@@ -2051,14 +2027,14 @@
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>金币</t>
+          <t>每日刷新</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="H64" s="0" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="J64" s="0" t="n">
@@ -2066,14 +2042,14 @@
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>钻石</t>
+          <t>每周刷新</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="H65" s="0" t="inlineStr">
         <is>
-          <t>GuildCoin</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="J65" s="0" t="n">
@@ -2081,326 +2057,327 @@
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
+          <t>每月刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>CurrencyType</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>货币类型</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>金币</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>钻石</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>GuildCoin</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" s="0" t="inlineStr">
+        <is>
           <t>公会币</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>AllianceCoin</t>
-        </is>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K66" s="0" t="inlineStr">
-        <is>
-          <t>联盟币</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="H67" s="0" t="inlineStr">
-        <is>
-          <t>HonorPoint</t>
-        </is>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K67" s="0" t="inlineStr">
-        <is>
-          <t>荣誉点</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>StockType</t>
-        </is>
-      </c>
-      <c r="C69" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>库存类型</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>Unlimited</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="0" t="inlineStr">
-        <is>
-          <t>无限库存</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>AllianceCoin</t>
         </is>
       </c>
       <c r="J70" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K70" s="0" t="inlineStr">
         <is>
-          <t>每日限购</t>
+          <t>联盟币</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="H71" s="0" t="inlineStr">
         <is>
+          <t>HonorPoint</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>荣誉点</t>
+        </is>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>StockType</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>库存类型</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>Unlimited</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="inlineStr">
+        <is>
+          <t>无限库存</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="0" t="inlineStr">
+        <is>
+          <t>每日限购</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" s="0" t="inlineStr">
+        <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="J75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K71" s="0" t="inlineStr">
+      <c r="K75" s="0" t="inlineStr">
         <is>
           <t>每周限购</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="H72" s="0" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K72" s="0" t="inlineStr">
-        <is>
-          <t>每月限购</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="H73" s="0" t="inlineStr">
-        <is>
-          <t>Lifetime</t>
-        </is>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K73" s="0" t="inlineStr">
-        <is>
-          <t>终身限购</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>DollType</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>玩偶类型</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr">
-        <is>
-          <t>Animal</t>
-        </is>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" s="0" t="inlineStr">
-        <is>
-          <t>动物</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="H76" s="0" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="J76" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" s="0" t="inlineStr">
         <is>
-          <t>人物</t>
+          <t>每月限购</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="H77" s="0" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Lifetime</t>
         </is>
       </c>
       <c r="J77" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K77" s="0" t="inlineStr">
         <is>
-          <t>植物</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="H78" s="0" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K78" s="0" t="inlineStr">
-        <is>
-          <t>物品</t>
+          <t>终身限购</t>
+        </is>
+      </c>
+    </row>
+    <row r="78"/>
+    <row r="79">
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>DollType</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>玩偶类型</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>Animal</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="0" t="inlineStr">
+        <is>
+          <t>动物</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>DropType</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>掉落类型</t>
-        </is>
-      </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="J80" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K80" s="0" t="inlineStr">
+        <is>
+          <t>人物</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>WEIGHT</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="J81" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K81" s="0" t="inlineStr">
+        <is>
+          <t>植物</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>PROBABILITY</t>
+          <t>Object</t>
         </is>
       </c>
       <c r="J82" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
+        <v>4</v>
+      </c>
+      <c r="K82" s="0" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+    </row>
+    <row r="83"/>
     <row r="84">
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>GachaType</t>
-        </is>
-      </c>
-      <c r="C84" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D84" s="0" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+          <t>DropType</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>抽卡类型</t>
+          <t>掉落类型</t>
         </is>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>Permanent</t>
+          <t>FIXED</t>
         </is>
       </c>
       <c r="J84" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="K84" s="0" t="inlineStr">
-        <is>
-          <t>常驻池</t>
-        </is>
       </c>
     </row>
     <row r="85">
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>WEIGHT</t>
         </is>
       </c>
       <c r="J85" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K85" s="0" t="inlineStr">
-        <is>
-          <t>UP池</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>PROBABILITY</t>
         </is>
       </c>
       <c r="J86" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K86" s="0" t="inlineStr">
-        <is>
-          <t>限定池</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="87"/>
     <row r="88">
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>PityRewardType</t>
+          <t>GachaType</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
@@ -2415,190 +2392,168 @@
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>保底奖励类型</t>
+          <t>抽卡类型</t>
         </is>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Permanent</t>
         </is>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="0" t="inlineStr">
         <is>
-          <t>无额外奖励</t>
+          <t>常驻池</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="H89" s="0" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="J89" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="0" t="inlineStr">
         <is>
-          <t>具体道具</t>
+          <t>UP池</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="H90" s="0" t="inlineStr">
         <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" s="0" t="inlineStr">
+        <is>
+          <t>限定池</t>
+        </is>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>PityRewardType</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>保底奖励类型</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="0" t="inlineStr">
+        <is>
+          <t>无额外奖励</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="0" t="inlineStr">
+        <is>
+          <t>具体道具</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" s="0" t="inlineStr">
+        <is>
           <t>Drop</t>
         </is>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J94" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K90" s="0" t="inlineStr">
+      <c r="K94" s="0" t="inlineStr">
         <is>
           <t>掉落包</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="n"/>
-      <c r="B91" s="0" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="0" t="n"/>
+      <c r="B95" s="0" t="inlineStr">
         <is>
           <t>ItemQuality</t>
         </is>
       </c>
-      <c r="C91" s="0" t="b">
+      <c r="C95" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D91" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="0" t="n"/>
-      <c r="F91" s="0" t="inlineStr">
+      <c r="D95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="0" t="n"/>
+      <c r="F95" s="0" t="inlineStr">
         <is>
           <t>道具品质</t>
         </is>
       </c>
-      <c r="G91" s="0" t="n"/>
-      <c r="H91" t="inlineStr">
+      <c r="G95" s="0" t="n"/>
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="J95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" s="0" t="inlineStr">
         <is>
           <t>白色</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" s="0" t="n"/>
-      <c r="F92" s="0" t="n"/>
-      <c r="G92" s="0" t="n"/>
-      <c r="H92" t="inlineStr">
+    <row r="96">
+      <c r="E96" s="0" t="n"/>
+      <c r="F96" s="0" t="n"/>
+      <c r="G96" s="0" t="n"/>
+      <c r="H96" s="0" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="J92" t="n">
+      <c r="J96" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K96" s="0" t="inlineStr">
         <is>
           <t>绿色</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" s="0" t="n"/>
-      <c r="F93" s="0" t="n"/>
-      <c r="G93" s="0" t="n"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>蓝色</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" s="0" t="n"/>
-      <c r="F94" s="0" t="n"/>
-      <c r="G94" s="0" t="n"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Purple</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>紫色</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="E95" s="0" t="n"/>
-      <c r="F95" s="0" t="n"/>
-      <c r="G95" s="0" t="n"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>橙色</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="n"/>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>DollQuality</t>
-        </is>
-      </c>
-      <c r="C96" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="0" t="n"/>
-      <c r="F96" s="0" t="inlineStr">
-        <is>
-          <t>玩偶品质</t>
-        </is>
-      </c>
-      <c r="G96" s="0" t="n"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Advanced</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>高级</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2561,17 @@
       <c r="E97" s="0" t="n"/>
       <c r="F97" s="0" t="n"/>
       <c r="G97" s="0" t="n"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>稀有</t>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" s="0" t="inlineStr">
+        <is>
+          <t>蓝色</t>
         </is>
       </c>
     </row>
@@ -2624,17 +2579,17 @@
       <c r="E98" s="0" t="n"/>
       <c r="F98" s="0" t="n"/>
       <c r="G98" s="0" t="n"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>史诗</t>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K98" s="0" t="inlineStr">
+        <is>
+          <t>紫色</t>
         </is>
       </c>
     </row>
@@ -2642,30 +2597,113 @@
       <c r="E99" s="0" t="n"/>
       <c r="F99" s="0" t="n"/>
       <c r="G99" s="0" t="n"/>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" s="0" t="inlineStr">
+        <is>
+          <t>橙色</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="n"/>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>DollQuality</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="0" t="n"/>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>玩偶品质</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="n"/>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>Advanced</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" s="0" t="inlineStr">
+        <is>
+          <t>高级</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" s="0" t="n"/>
+      <c r="F101" s="0" t="n"/>
+      <c r="G101" s="0" t="n"/>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" s="0" t="inlineStr">
+        <is>
+          <t>稀有</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" s="0" t="n"/>
+      <c r="F102" s="0" t="n"/>
+      <c r="G102" s="0" t="n"/>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K102" s="0" t="inlineStr">
+        <is>
+          <t>史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" s="0" t="n"/>
+      <c r="F103" s="0" t="n"/>
+      <c r="G103" s="0" t="n"/>
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>Hidden</t>
         </is>
       </c>
-      <c r="J99" t="n">
+      <c r="J103" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K103" s="0" t="inlineStr">
         <is>
           <t>隐藏</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="E100" s="0" t="n"/>
-      <c r="F100" s="0" t="n"/>
-      <c r="G100" s="0" t="n"/>
-    </row>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
+    <row r="104">
+      <c r="E104" s="0" t="n"/>
+      <c r="F104" s="0" t="n"/>
+      <c r="G104" s="0" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1236,7 +1236,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1313,7 +1312,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1585,31 +1583,29 @@
         </is>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33"/>
     <row r="34">
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>DollAnimal</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>DollHuman</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>DollPlant</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>DollObject</t>
         </is>
@@ -1676,7 +1672,6 @@
         </is>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="B42" s="0" t="inlineStr">
         <is>
@@ -1753,7 +1748,6 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
     <row r="47">
       <c r="B47" s="0" t="inlineStr">
         <is>
@@ -1860,7 +1854,6 @@
         </is>
       </c>
     </row>
-    <row r="53"/>
     <row r="54">
       <c r="B54" s="0" t="inlineStr">
         <is>
@@ -1922,7 +1915,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
     <row r="58">
       <c r="B58" s="0" t="inlineStr">
         <is>
@@ -1984,7 +1976,6 @@
         </is>
       </c>
     </row>
-    <row r="61"/>
     <row r="62">
       <c r="B62" s="0" t="inlineStr">
         <is>
@@ -2061,7 +2052,6 @@
         </is>
       </c>
     </row>
-    <row r="66"/>
     <row r="67">
       <c r="B67" s="0" t="inlineStr">
         <is>
@@ -2153,7 +2143,6 @@
         </is>
       </c>
     </row>
-    <row r="72"/>
     <row r="73">
       <c r="B73" s="0" t="inlineStr">
         <is>
@@ -2245,7 +2234,6 @@
         </is>
       </c>
     </row>
-    <row r="78"/>
     <row r="79">
       <c r="B79" s="0" t="inlineStr">
         <is>
@@ -2326,7 +2314,6 @@
         </is>
       </c>
     </row>
-    <row r="83"/>
     <row r="84">
       <c r="B84" s="0" t="inlineStr">
         <is>
@@ -2373,7 +2360,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87"/>
     <row r="88">
       <c r="B88" s="0" t="inlineStr">
         <is>
@@ -2439,7 +2425,6 @@
         </is>
       </c>
     </row>
-    <row r="91"/>
     <row r="92">
       <c r="B92" s="0" t="inlineStr">
         <is>
@@ -2703,6 +2688,68 @@
       <c r="E104" s="0" t="n"/>
       <c r="F104" s="0" t="n"/>
       <c r="G104" s="0" t="n"/>
+    </row>
+    <row r="105"/>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DollSortType</t>
+        </is>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>玩偶排序类型</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Favorite</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>收藏优先</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>品质排序</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>CreateTime</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>获得时间排序</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15615" windowHeight="7560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -2689,65 +2689,337 @@
       <c r="F104" s="0" t="n"/>
       <c r="G104" s="0" t="n"/>
     </row>
-    <row r="105"/>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="0" t="inlineStr">
         <is>
           <t>DollSortType</t>
         </is>
       </c>
-      <c r="C106" t="b">
+      <c r="C106" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="D106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
         <is>
           <t>玩偶排序类型</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>Favorite</t>
         </is>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="0" t="inlineStr">
         <is>
           <t>收藏优先</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="J107" t="n">
+      <c r="J107" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" s="0" t="inlineStr">
         <is>
           <t>品质排序</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="H108" t="inlineStr">
+      <c r="H108" s="0" t="inlineStr">
         <is>
           <t>CreateTime</t>
         </is>
       </c>
-      <c r="J108" t="n">
+      <c r="J108" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="K108" s="0" t="inlineStr">
         <is>
           <t>获得时间排序</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>活动类型</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>FARMING</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>种田</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>COMPETITION</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>竞赛</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CycleType</t>
+        </is>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>周期类型</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>DAILY</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>每日</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>WEEKLY</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>每周</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>MONTHLY</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>每月</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>ONCE</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>StageName</t>
+        </is>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>阶段名称</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>WAITING_DRAW</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>等待开奖</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>SIGNUP_1</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>报名阶段1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>SIGNUP_2</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>报名阶段2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>PREPARE</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>休息</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>VOTING</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>投票</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>PK_ROUND_1</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>PK第一轮</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PK_ROUND_2</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>PK第二轮</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>SETTLE</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>结算</t>
         </is>
       </c>
     </row>
